--- a/REGULAR/LOYOLA, JANE.xlsx
+++ b/REGULAR/LOYOLA, JANE.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD35A2F8-60F2-476B-BF0B-1486C82CD637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -24,25 +25,17 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="264">
   <si>
     <t>PERIOD</t>
   </si>
@@ -831,12 +824,15 @@
   </si>
   <si>
     <t>6/6,17</t>
+  </si>
+  <si>
+    <t>2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1708,7 +1704,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1751,7 +1747,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1815,7 +1811,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1875,7 +1871,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1941,7 +1937,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2004,7 +2000,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2102,7 +2098,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2161,7 +2157,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2226,7 +2222,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2269,7 +2265,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2344,7 +2340,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2530,7 +2526,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2596,7 +2592,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2654,7 +2650,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2720,7 +2716,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2776,7 +2772,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2851,7 +2847,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2894,7 +2890,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2960,7 +2956,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3016,7 +3012,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3114,7 +3110,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3177,7 +3173,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3226,7 +3222,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3243,25 +3239,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K304" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K304" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3273,13 +3269,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3288,14 +3284,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3599,7 +3595,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3617,16 +3613,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K304"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A260" activePane="bottomLeft"/>
-      <selection activeCell="F187" sqref="F187"/>
-      <selection pane="bottomLeft" activeCell="D273" sqref="D273"/>
+      <pane ySplit="3576" topLeftCell="A240" activePane="bottomLeft"/>
+      <selection activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="E249" sqref="E249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3783,7 +3779,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>6.9099999999999397</v>
+        <v>13.15999999999994</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3793,7 +3789,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>105.75</v>
+        <v>112</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -9721,7 +9717,9 @@
       <c r="K271" s="20"/>
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A272" s="40"/>
+      <c r="A272" s="48" t="s">
+        <v>263</v>
+      </c>
       <c r="B272" s="20"/>
       <c r="C272" s="13"/>
       <c r="D272" s="39"/>
@@ -9737,15 +9735,19 @@
       <c r="K272" s="20"/>
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A273" s="40"/>
+      <c r="A273" s="40">
+        <v>44927</v>
+      </c>
       <c r="B273" s="20"/>
-      <c r="C273" s="13"/>
+      <c r="C273" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D273" s="39"/>
       <c r="E273" s="9"/>
       <c r="F273" s="20"/>
-      <c r="G273" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G273" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H273" s="39"/>
       <c r="I273" s="9"/>
@@ -9753,15 +9755,19 @@
       <c r="K273" s="20"/>
     </row>
     <row r="274" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A274" s="40"/>
+      <c r="A274" s="40">
+        <v>44958</v>
+      </c>
       <c r="B274" s="20"/>
-      <c r="C274" s="13"/>
+      <c r="C274" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D274" s="39"/>
       <c r="E274" s="9"/>
       <c r="F274" s="20"/>
-      <c r="G274" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G274" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H274" s="39"/>
       <c r="I274" s="9"/>
@@ -9769,15 +9775,19 @@
       <c r="K274" s="20"/>
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A275" s="40"/>
+      <c r="A275" s="40">
+        <v>44986</v>
+      </c>
       <c r="B275" s="20"/>
-      <c r="C275" s="13"/>
+      <c r="C275" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D275" s="39"/>
       <c r="E275" s="9"/>
       <c r="F275" s="20"/>
-      <c r="G275" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G275" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H275" s="39"/>
       <c r="I275" s="9"/>
@@ -9785,15 +9795,19 @@
       <c r="K275" s="20"/>
     </row>
     <row r="276" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A276" s="40"/>
+      <c r="A276" s="40">
+        <v>45017</v>
+      </c>
       <c r="B276" s="20"/>
-      <c r="C276" s="13"/>
+      <c r="C276" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D276" s="39"/>
       <c r="E276" s="9"/>
       <c r="F276" s="20"/>
-      <c r="G276" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G276" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H276" s="39"/>
       <c r="I276" s="9"/>
@@ -9801,15 +9815,19 @@
       <c r="K276" s="20"/>
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A277" s="40"/>
+      <c r="A277" s="40">
+        <v>45047</v>
+      </c>
       <c r="B277" s="20"/>
-      <c r="C277" s="13"/>
+      <c r="C277" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D277" s="39"/>
       <c r="E277" s="9"/>
       <c r="F277" s="20"/>
-      <c r="G277" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G277" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H277" s="39"/>
       <c r="I277" s="9"/>
@@ -9817,7 +9835,9 @@
       <c r="K277" s="20"/>
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A278" s="40"/>
+      <c r="A278" s="40">
+        <v>45078</v>
+      </c>
       <c r="B278" s="20"/>
       <c r="C278" s="13"/>
       <c r="D278" s="39"/>
@@ -9833,7 +9853,9 @@
       <c r="K278" s="20"/>
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A279" s="40"/>
+      <c r="A279" s="40">
+        <v>45108</v>
+      </c>
       <c r="B279" s="20"/>
       <c r="C279" s="13"/>
       <c r="D279" s="39"/>
@@ -9849,7 +9871,9 @@
       <c r="K279" s="20"/>
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A280" s="40"/>
+      <c r="A280" s="40">
+        <v>45139</v>
+      </c>
       <c r="B280" s="20"/>
       <c r="C280" s="13"/>
       <c r="D280" s="39"/>
@@ -9865,7 +9889,9 @@
       <c r="K280" s="20"/>
     </row>
     <row r="281" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A281" s="40"/>
+      <c r="A281" s="40">
+        <v>45170</v>
+      </c>
       <c r="B281" s="20"/>
       <c r="C281" s="13"/>
       <c r="D281" s="39"/>
@@ -9881,7 +9907,9 @@
       <c r="K281" s="20"/>
     </row>
     <row r="282" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A282" s="40"/>
+      <c r="A282" s="40">
+        <v>45200</v>
+      </c>
       <c r="B282" s="20"/>
       <c r="C282" s="13"/>
       <c r="D282" s="39"/>
@@ -9897,7 +9925,9 @@
       <c r="K282" s="20"/>
     </row>
     <row r="283" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A283" s="40"/>
+      <c r="A283" s="40">
+        <v>45231</v>
+      </c>
       <c r="B283" s="20"/>
       <c r="C283" s="13"/>
       <c r="D283" s="39"/>
@@ -9913,7 +9943,9 @@
       <c r="K283" s="20"/>
     </row>
     <row r="284" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A284" s="40"/>
+      <c r="A284" s="40">
+        <v>45261</v>
+      </c>
       <c r="B284" s="20"/>
       <c r="C284" s="13"/>
       <c r="D284" s="39"/>
@@ -9929,7 +9961,9 @@
       <c r="K284" s="20"/>
     </row>
     <row r="285" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A285" s="40"/>
+      <c r="A285" s="40">
+        <v>45292</v>
+      </c>
       <c r="B285" s="20"/>
       <c r="C285" s="13"/>
       <c r="D285" s="39"/>
@@ -9945,7 +9979,9 @@
       <c r="K285" s="20"/>
     </row>
     <row r="286" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A286" s="40"/>
+      <c r="A286" s="40">
+        <v>45323</v>
+      </c>
       <c r="B286" s="20"/>
       <c r="C286" s="13"/>
       <c r="D286" s="39"/>
@@ -10263,10 +10299,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10289,7 +10325,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>

--- a/REGULAR/LOYOLA, JANE.xlsx
+++ b/REGULAR/LOYOLA, JANE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD35A2F8-60F2-476B-BF0B-1486C82CD637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{783AD514-779E-4122-843C-B9C52E3B880E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="264">
   <si>
     <t>PERIOD</t>
   </si>
@@ -3620,9 +3620,9 @@
   <dimension ref="A2:K304"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A240" activePane="bottomLeft"/>
+      <pane ySplit="3576" topLeftCell="A270" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="E249" sqref="E249"/>
+      <selection pane="bottomLeft" activeCell="B279" sqref="B279"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3779,7 +3779,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>13.15999999999994</v>
+        <v>14.40999999999994</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3789,7 +3789,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>112</v>
+        <v>113.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -9838,19 +9838,25 @@
       <c r="A278" s="40">
         <v>45078</v>
       </c>
-      <c r="B278" s="20"/>
-      <c r="C278" s="13"/>
+      <c r="B278" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C278" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D278" s="39"/>
       <c r="E278" s="9"/>
       <c r="F278" s="20"/>
-      <c r="G278" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G278" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H278" s="39"/>
       <c r="I278" s="9"/>
       <c r="J278" s="11"/>
-      <c r="K278" s="20"/>
+      <c r="K278" s="50">
+        <v>45093</v>
+      </c>
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="40">
